--- a/ExcelFiles/PatientView.xlsx
+++ b/ExcelFiles/PatientView.xlsx
@@ -1,14 +1,14 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="28827"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="6" rupBuild="29328"/>
   <workbookPr/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
       <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="D:\Riomed\Release_Server\Cellma4ClinicalAuto2\ExcelFiles\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{39119CAF-0094-4615-845A-3E3C99E225F8}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{57B2BF0E-7C4A-4FD0-861F-C26573C68DFC}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
     <workbookView xWindow="-120" yWindow="-120" windowWidth="24240" windowHeight="13020" activeTab="2" xr2:uid="{00000000-000D-0000-FFFF-FFFF00000000}"/>
   </bookViews>
@@ -1111,7 +1111,7 @@
   <dimension ref="A1:D15"/>
   <sheetViews>
     <sheetView tabSelected="1" workbookViewId="0">
-      <selection activeCell="C17" sqref="C17"/>
+      <selection activeCell="A4" sqref="A4"/>
     </sheetView>
   </sheetViews>
   <sheetFormatPr defaultRowHeight="15" x14ac:dyDescent="0.25"/>
@@ -1335,6 +1335,26 @@
 </file>
 
 <file path=customXml/item1.xml><?xml version="1.0" encoding="utf-8"?>
+<?mso-contentType ?>
+<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
+  <Display>DocumentLibraryForm</Display>
+  <Edit>DocumentLibraryForm</Edit>
+  <New>DocumentLibraryForm</New>
+</FormTemplates>
+</file>
+
+<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
+<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
+  <documentManagement>
+    <lcf76f155ced4ddcb4097134ff3c332f xmlns="563c2453-77f6-4899-a3ec-7eb6553b4f66">
+      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    </lcf76f155ced4ddcb4097134ff3c332f>
+    <TaxCatchAll xmlns="c9416fa7-6169-4354-a691-3cfdebf72cd6" xsi:nil="true"/>
+  </documentManagement>
+</p:properties>
+</file>
+
+<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
 <ct:contentTypeSchema xmlns:ct="http://schemas.microsoft.com/office/2006/metadata/contentType" xmlns:ma="http://schemas.microsoft.com/office/2006/metadata/properties/metaAttributes" ct:_="" ma:_="" ma:contentTypeName="Document" ma:contentTypeID="0x010100957D2DE5FA4F58469907EC3226CC7D98" ma:contentTypeVersion="18" ma:contentTypeDescription="Create a new document." ma:contentTypeScope="" ma:versionID="090753d51dfd09a1119d54c5de179dfc">
   <xsd:schema xmlns:xsd="http://www.w3.org/2001/XMLSchema" xmlns:xs="http://www.w3.org/2001/XMLSchema" xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:ns2="563c2453-77f6-4899-a3ec-7eb6553b4f66" xmlns:ns3="c9416fa7-6169-4354-a691-3cfdebf72cd6" targetNamespace="http://schemas.microsoft.com/office/2006/metadata/properties" ma:root="true" ma:fieldsID="9c8570d9b0f0a7b9a0c34f8b658bbfee" ns2:_="" ns3:_="">
     <xsd:import namespace="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
@@ -1589,27 +1609,26 @@
 </ct:contentTypeSchema>
 </file>
 
-<file path=customXml/item2.xml><?xml version="1.0" encoding="utf-8"?>
-<p:properties xmlns:p="http://schemas.microsoft.com/office/2006/metadata/properties" xmlns:xsi="http://www.w3.org/2001/XMLSchema-instance" xmlns:pc="http://schemas.microsoft.com/office/infopath/2007/PartnerControls">
-  <documentManagement>
-    <lcf76f155ced4ddcb4097134ff3c332f xmlns="563c2453-77f6-4899-a3ec-7eb6553b4f66">
-      <Terms xmlns="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    </lcf76f155ced4ddcb4097134ff3c332f>
-    <TaxCatchAll xmlns="c9416fa7-6169-4354-a691-3cfdebf72cd6" xsi:nil="true"/>
-  </documentManagement>
-</p:properties>
+<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{101DBEFA-2EFF-47B2-92EB-3E72B43EE2A6}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/item3.xml><?xml version="1.0" encoding="utf-8"?>
-<?mso-contentType ?>
-<FormTemplates xmlns="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms">
-  <Display>DocumentLibraryForm</Display>
-  <Edit>DocumentLibraryForm</Edit>
-  <New>DocumentLibraryForm</New>
-</FormTemplates>
+<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
+<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE0B556D-2173-4F7C-9F53-AE9A9D15CB9C}">
+  <ds:schemaRefs>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
+    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
+    <ds:schemaRef ds:uri="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
+    <ds:schemaRef ds:uri="c9416fa7-6169-4354-a691-3cfdebf72cd6"/>
+  </ds:schemaRefs>
+</ds:datastoreItem>
 </file>
 
-<file path=customXml/itemProps1.xml><?xml version="1.0" encoding="utf-8"?>
+<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
 <ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{E1EC2FBF-A56D-40AC-8C09-CB1DCD191DD4}">
   <ds:schemaRefs>
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/contentType"/>
@@ -1626,23 +1645,4 @@
     <ds:schemaRef ds:uri="http://schemas.microsoft.com/internal/obd"/>
   </ds:schemaRefs>
 </ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps2.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{FE0B556D-2173-4F7C-9F53-AE9A9D15CB9C}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/2006/metadata/properties"/>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/office/infopath/2007/PartnerControls"/>
-    <ds:schemaRef ds:uri="563c2453-77f6-4899-a3ec-7eb6553b4f66"/>
-    <ds:schemaRef ds:uri="c9416fa7-6169-4354-a691-3cfdebf72cd6"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
-</file>
-
-<file path=customXml/itemProps3.xml><?xml version="1.0" encoding="utf-8"?>
-<ds:datastoreItem xmlns:ds="http://schemas.openxmlformats.org/officeDocument/2006/customXml" ds:itemID="{101DBEFA-2EFF-47B2-92EB-3E72B43EE2A6}">
-  <ds:schemaRefs>
-    <ds:schemaRef ds:uri="http://schemas.microsoft.com/sharepoint/v3/contenttype/forms"/>
-  </ds:schemaRefs>
-</ds:datastoreItem>
 </file>